--- a/氣象性能評估工具V2/data/obs/backup/2016-06-19_t2_obs.xlsx
+++ b/氣象性能評估工具V2/data/obs/backup/2016-06-19_t2_obs.xlsx
@@ -91,7 +91,7 @@
     <t>恆春</t>
   </si>
   <si>
-    <t>2016-06-19 00:00:00</t>
+    <t>2016-06-19-00</t>
   </si>
   <si>
     <t>21.2</t>
@@ -157,7 +157,7 @@
     <t>28.2</t>
   </si>
   <si>
-    <t>2016-06-19 01:00:00</t>
+    <t>2016-06-19-01</t>
   </si>
   <si>
     <t>19.7</t>
@@ -214,7 +214,7 @@
     <t>25.6</t>
   </si>
   <si>
-    <t>2016-06-19 02:00:00</t>
+    <t>2016-06-19-02</t>
   </si>
   <si>
     <t>25.0</t>
@@ -250,7 +250,7 @@
     <t>26.5</t>
   </si>
   <si>
-    <t>2016-06-19 03:00:00</t>
+    <t>2016-06-19-03</t>
   </si>
   <si>
     <t>20.0</t>
@@ -277,7 +277,7 @@
     <t>26.3</t>
   </si>
   <si>
-    <t>2016-06-19 04:00:00</t>
+    <t>2016-06-19-04</t>
   </si>
   <si>
     <t>21.4</t>
@@ -304,7 +304,7 @@
     <t>27.9</t>
   </si>
   <si>
-    <t>2016-06-19 05:00:00</t>
+    <t>2016-06-19-05</t>
   </si>
   <si>
     <t>22.2</t>
@@ -319,7 +319,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>2016-06-19 06:00:00</t>
+    <t>2016-06-19-06</t>
   </si>
   <si>
     <t>23.2</t>
@@ -343,7 +343,7 @@
     <t>27.0</t>
   </si>
   <si>
-    <t>2016-06-19 07:00:00</t>
+    <t>2016-06-19-07</t>
   </si>
   <si>
     <t>29.8</t>
@@ -382,7 +382,7 @@
     <t>30.6</t>
   </si>
   <si>
-    <t>2016-06-19 08:00:00</t>
+    <t>2016-06-19-08</t>
   </si>
   <si>
     <t>23.9</t>
@@ -421,7 +421,7 @@
     <t>31.8</t>
   </si>
   <si>
-    <t>2016-06-19 09:00:00</t>
+    <t>2016-06-19-09</t>
   </si>
   <si>
     <t>30.7</t>
@@ -457,7 +457,7 @@
     <t>32.4</t>
   </si>
   <si>
-    <t>2016-06-19 10:00:00</t>
+    <t>2016-06-19-10</t>
   </si>
   <si>
     <t>34.3</t>
@@ -487,7 +487,7 @@
     <t>32.9</t>
   </si>
   <si>
-    <t>2016-06-19 11:00:00</t>
+    <t>2016-06-19-11</t>
   </si>
   <si>
     <t>32.3</t>
@@ -514,7 +514,7 @@
     <t>34.4</t>
   </si>
   <si>
-    <t>2016-06-19 12:00:00</t>
+    <t>2016-06-19-12</t>
   </si>
   <si>
     <t>35.8</t>
@@ -532,7 +532,7 @@
     <t>31.3</t>
   </si>
   <si>
-    <t>2016-06-19 13:00:00</t>
+    <t>2016-06-19-13</t>
   </si>
   <si>
     <t>35.1</t>
@@ -544,7 +544,7 @@
     <t>18.0</t>
   </si>
   <si>
-    <t>2016-06-19 14:00:00</t>
+    <t>2016-06-19-14</t>
   </si>
   <si>
     <t>29.2</t>
@@ -553,7 +553,7 @@
     <t>8.2</t>
   </si>
   <si>
-    <t>2016-06-19 15:00:00</t>
+    <t>2016-06-19-15</t>
   </si>
   <si>
     <t>23.7</t>
@@ -565,7 +565,7 @@
     <t>7.4</t>
   </si>
   <si>
-    <t>2016-06-19 16:00:00</t>
+    <t>2016-06-19-16</t>
   </si>
   <si>
     <t>29.6</t>
@@ -577,7 +577,7 @@
     <t>7.9</t>
   </si>
   <si>
-    <t>2016-06-19 17:00:00</t>
+    <t>2016-06-19-17</t>
   </si>
   <si>
     <t>23.1</t>
@@ -589,13 +589,13 @@
     <t>30.4</t>
   </si>
   <si>
-    <t>2016-06-19 18:00:00</t>
+    <t>2016-06-19-18</t>
   </si>
   <si>
     <t>6.8</t>
   </si>
   <si>
-    <t>2016-06-19 19:00:00</t>
+    <t>2016-06-19-19</t>
   </si>
   <si>
     <t>22.0</t>
@@ -607,7 +607,7 @@
     <t>6.1</t>
   </si>
   <si>
-    <t>2016-06-19 20:00:00</t>
+    <t>2016-06-19-20</t>
   </si>
   <si>
     <t>27.3</t>
@@ -622,7 +622,7 @@
     <t>12.4</t>
   </si>
   <si>
-    <t>2016-06-19 21:00:00</t>
+    <t>2016-06-19-21</t>
   </si>
   <si>
     <t>22.3</t>
@@ -631,7 +631,7 @@
     <t>6.4</t>
   </si>
   <si>
-    <t>2016-06-19 22:00:00</t>
+    <t>2016-06-19-22</t>
   </si>
   <si>
     <t>21.5</t>
@@ -646,7 +646,7 @@
     <t>12.3</t>
   </si>
   <si>
-    <t>2016-06-19 23:00:00</t>
+    <t>2016-06-19-23</t>
   </si>
   <si>
     <t>11.8</t>
